--- a/Proyecto de grado/Metodologia y documentacion/Agosto/Cap1_ProcesamientoDeImagenes/Metodos y tecnicas.xlsx
+++ b/Proyecto de grado/Metodologia y documentacion/Agosto/Cap1_ProcesamientoDeImagenes/Metodos y tecnicas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torres_2\Documents\Uniajc\GitHub\Uniajc_Tesis_OTFV\Proyecto de grado\Metodologia y documentacion\Agosto\Cap1_ProcesamientoDeImagenes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0DC954-6A40-42A5-AA35-CB39F7795D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54602B1-B340-4581-A265-FF41E2EE0D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0AED005A-E7F9-4C01-9E80-1ACF4FCEDF71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0AED005A-E7F9-4C01-9E80-1ACF4FCEDF71}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagrama" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Adquisición de imágenes.</t>
   </si>
@@ -74,6 +75,55 @@
   </si>
   <si>
     <t>Clasificadores</t>
+  </si>
+  <si>
+    <t>Etapas.</t>
+  </si>
+  <si>
+    <t>Etapa sensorial.</t>
+  </si>
+  <si>
+    <t>Etapa de preprocesado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etapa de parametrización
+</t>
+  </si>
+  <si>
+    <t>Etapa de clasificación.</t>
+  </si>
+  <si>
+    <t>Método.</t>
+  </si>
+  <si>
+    <t>Metodología para la toma de registros termográficos.</t>
+  </si>
+  <si>
+    <t>Preprocesamiento y segmentación</t>
+  </si>
+  <si>
+    <t>Etapa de segmentación.</t>
+  </si>
+  <si>
+    <t>Transformada de Hough.</t>
+  </si>
+  <si>
+    <t>Extracción de características.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histograma Orientado a Gradientes.
+texturas de Haralick.
+</t>
+  </si>
+  <si>
+    <t>Reconocimiento.</t>
+  </si>
+  <si>
+    <t>Máquina de soporte vectorial.
+Redes Neuronales artificiales.</t>
+  </si>
+  <si>
+    <t>Método para la detección de fallas propuesto.</t>
   </si>
 </sst>
 </file>
@@ -170,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -182,13 +232,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -198,6 +242,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -215,6 +268,647 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>309562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>833437</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>309562</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04968A73-EBE2-498D-8386-7BEF6C93C38B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="869156"/>
+          <a:ext cx="642937" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819149</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector recto de flecha 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD718EE0-8323-49B0-8FEF-D97260C488AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2462212" y="1688306"/>
+          <a:ext cx="642937" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>173831</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>280987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>816768</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>280987</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5377C388-B69B-4DF3-B536-2642CF38890E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2459831" y="2507456"/>
+          <a:ext cx="642937" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>766762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>814387</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>766762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto de flecha 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A4C029-DCFA-40DD-AD63-4D54C447C63D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="3826668"/>
+          <a:ext cx="642937" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>192881</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>395287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>835818</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>395287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector recto de flecha 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D526745-52AF-4E3F-9847-7B0290F602D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2478881" y="5145881"/>
+          <a:ext cx="642937" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>833437</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8584D740-6034-4E99-AAAA-EA13AA59430E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="6060281"/>
+          <a:ext cx="642937" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>876299</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto de flecha 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D015805E-A97C-4A0F-8519-F9FACE23BC30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5091112" y="892969"/>
+          <a:ext cx="642937" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>319088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>862011</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>319088</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto de flecha 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4BC9C73-F544-4578-9E73-7FCC7861BFB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076824" y="1712119"/>
+          <a:ext cx="642937" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>216693</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>859630</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2DC5E8A-39BB-4873-8B65-76F959F5A7FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5074443" y="2531269"/>
+          <a:ext cx="642937" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>857249</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector recto de flecha 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0770F24-411E-4712-B4C6-572449FC73BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5072062" y="3850481"/>
+          <a:ext cx="642937" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>235743</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>878680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector recto de flecha 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F50703-4B05-42D7-874B-6D0708CF8CCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5093493" y="5169694"/>
+          <a:ext cx="642937" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>357188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>876299</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>357188</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector recto de flecha 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79F23C9-EBC9-4E5A-AD07-45BD4350AA59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5091112" y="6084094"/>
+          <a:ext cx="642937" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE318A2C-69C6-4115-9491-08F993E9AA8E}">
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,13 +1223,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="2:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -545,101 +1239,106 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:6" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="10"/>
+      <c r="E6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="10"/>
+      <c r="E8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:6" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="10"/>
+      <c r="E10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="10"/>
+      <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="10"/>
+      <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="2:6" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="E16" s="6" t="s">
+      <c r="C16" s="10"/>
+      <c r="E16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B16:C16"/>
@@ -650,13 +1349,206 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A5A7A7-C42A-44D3-82F2-CEA2777BE179}">
+  <dimension ref="B1:I16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="2:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="H4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="H6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="H8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="E10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="H10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="H12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="2:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="E14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="H14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="E16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="H16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Proyecto de grado/Metodologia y documentacion/Agosto/Cap1_ProcesamientoDeImagenes/Metodos y tecnicas.xlsx
+++ b/Proyecto de grado/Metodologia y documentacion/Agosto/Cap1_ProcesamientoDeImagenes/Metodos y tecnicas.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torres_2\Documents\Uniajc\GitHub\Uniajc_Tesis_OTFV\Proyecto de grado\Metodologia y documentacion\Agosto\Cap1_ProcesamientoDeImagenes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torre\Documents\Uniajc\Github\Uniajc_Tesis_OTFV\Proyecto de grado\Metodologia y documentacion\Agosto\Cap1_ProcesamientoDeImagenes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54602B1-B340-4581-A265-FF41E2EE0D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4EAB83-864B-4B9B-81B1-83CED62B8C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0AED005A-E7F9-4C01-9E80-1ACF4FCEDF71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0AED005A-E7F9-4C01-9E80-1ACF4FCEDF71}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Diagrama" sheetId="2" r:id="rId2"/>
+    <sheet name="DiagramaDeBloques" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja1 (2)" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>Adquisición de imágenes.</t>
   </si>
@@ -124,13 +126,187 @@
   </si>
   <si>
     <t>Método para la detección de fallas propuesto.</t>
+  </si>
+  <si>
+    <t>Etapas</t>
+  </si>
+  <si>
+    <t>Método</t>
+  </si>
+  <si>
+    <t>Captura</t>
+  </si>
+  <si>
+    <t>Adquisición de imagen</t>
+  </si>
+  <si>
+    <t>Pre - Procesamiento</t>
+  </si>
+  <si>
+    <t>Mejora y realce</t>
+  </si>
+  <si>
+    <t>Segmentación</t>
+  </si>
+  <si>
+    <t>Extracción de objetos</t>
+  </si>
+  <si>
+    <t>Parametrización</t>
+  </si>
+  <si>
+    <t>Reconocimiento</t>
+  </si>
+  <si>
+    <t>Identificación de objetos</t>
+  </si>
+  <si>
+    <t>Extracción de características</t>
+  </si>
+  <si>
+    <t>Determinador de objetos</t>
+  </si>
+  <si>
+    <t>Técnica</t>
+  </si>
+  <si>
+    <t>Metodología para la toma de registros termográficos</t>
+  </si>
+  <si>
+    <t>Clasificación</t>
+  </si>
+  <si>
+    <t>REALCE Y MEJORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Técnicas en el dominio espacial</t>
+  </si>
+  <si>
+    <t>Técnicas en el dominio de la frecuencia</t>
+  </si>
+  <si>
+    <t>Realce punto a punto</t>
+  </si>
+  <si>
+    <t>Escala de grises</t>
+  </si>
+  <si>
+    <t>Filtro Ideal</t>
+  </si>
+  <si>
+    <t>Negativo de imagen</t>
+  </si>
+  <si>
+    <t>Aumento del contraste</t>
+  </si>
+  <si>
+    <t>Compresión del rango dinámico</t>
+  </si>
+  <si>
+    <t>Fraccionamiento del nivel de gris</t>
+  </si>
+  <si>
+    <t>Filtro Butterworth</t>
+  </si>
+  <si>
+    <t>Procesado del histograma</t>
+  </si>
+  <si>
+    <t>Realce con operaciones entre vecinos</t>
+  </si>
+  <si>
+    <t>Filtro pasa bajos</t>
+  </si>
+  <si>
+    <t>Filtro de mediana</t>
+  </si>
+  <si>
+    <t>SEGMENTACIÓN</t>
+  </si>
+  <si>
+    <t>Segmentación – Detección de Bordes</t>
+  </si>
+  <si>
+    <t>Segmentación - Umbralización</t>
+  </si>
+  <si>
+    <t>Segmentación – Basada en Regiones</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>Técnica de los dos picos</t>
+  </si>
+  <si>
+    <t>Algoritmo basado en regiones</t>
+  </si>
+  <si>
+    <t>Prewitt</t>
+  </si>
+  <si>
+    <t>Algoritmo ISODATA</t>
+  </si>
+  <si>
+    <t>Crecimiento de regiones</t>
+  </si>
+  <si>
+    <t>Sobel</t>
+  </si>
+  <si>
+    <t>Técnica Otsu</t>
+  </si>
+  <si>
+    <t>División y fusión de regiones</t>
+  </si>
+  <si>
+    <t>Canny</t>
+  </si>
+  <si>
+    <t>EXTRACCIÓN DE CARACTERÍSTICAS</t>
+  </si>
+  <si>
+    <t>Extracción de puntos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Extracción de líneas y círculos</t>
+  </si>
+  <si>
+    <t>Puntos de Fuga</t>
+  </si>
+  <si>
+    <t>Intersección de rectas</t>
+  </si>
+  <si>
+    <t>Canny + Burns</t>
+  </si>
+  <si>
+    <t>Algoritmo de Burns</t>
+  </si>
+  <si>
+    <t>Minimización del área del triángulo</t>
+  </si>
+  <si>
+    <t>RANSAC + MMC</t>
+  </si>
+  <si>
+    <t>Puntos de Esquina</t>
+  </si>
+  <si>
+    <t>Métodos de puntos de esquina</t>
+  </si>
+  <si>
+    <t>Algoritmo de Canny</t>
+  </si>
+  <si>
+    <t>Transformada de Hough</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +321,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,8 +364,80 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -216,11 +493,238 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -253,6 +757,227 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -268,6 +993,2246 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent3_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent3" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{61A54933-1FBA-4526-815D-1C79B5E77B6B}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1" loCatId="process" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent3_2" csCatId="accent3" phldr="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1B53F2D1-6901-435B-A034-7D900F410914}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO"/>
+            <a:t>PROCESAMIENTO DE IMÁGENES</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{950D08B5-75A3-4B5F-84F9-73549E200D47}" type="parTrans" cxnId="{EE48C3BB-F572-43D9-B700-17D44B876095}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DFD20C27-1BCD-41D0-BBEC-3A597E2BBF81}" type="sibTrans" cxnId="{EE48C3BB-F572-43D9-B700-17D44B876095}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3F40EBC4-66D6-4109-B6D5-372836BA2808}" type="pres">
+      <dgm:prSet presAssocID="{61A54933-1FBA-4526-815D-1C79B5E77B6B}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B17579CE-7C20-47C5-AD5A-257B66940C56}" type="pres">
+      <dgm:prSet presAssocID="{1B53F2D1-6901-435B-A034-7D900F410914}" presName="parTxOnly" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="1" custLinFactY="-219327" custLinFactNeighborX="3029" custLinFactNeighborY="-300000">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{8149801D-99B1-4DDE-9EEE-41B482E4B7B4}" type="presOf" srcId="{1B53F2D1-6901-435B-A034-7D900F410914}" destId="{B17579CE-7C20-47C5-AD5A-257B66940C56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{7FF6A178-C7F0-468A-BC69-9C2CB752035F}" type="presOf" srcId="{61A54933-1FBA-4526-815D-1C79B5E77B6B}" destId="{3F40EBC4-66D6-4109-B6D5-372836BA2808}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{EE48C3BB-F572-43D9-B700-17D44B876095}" srcId="{61A54933-1FBA-4526-815D-1C79B5E77B6B}" destId="{1B53F2D1-6901-435B-A034-7D900F410914}" srcOrd="0" destOrd="0" parTransId="{950D08B5-75A3-4B5F-84F9-73549E200D47}" sibTransId="{DFD20C27-1BCD-41D0-BBEC-3A597E2BBF81}"/>
+    <dgm:cxn modelId="{753C70D0-DA34-4464-A638-E4A0A65D2F08}" type="presParOf" srcId="{3F40EBC4-66D6-4109-B6D5-372836BA2808}" destId="{B17579CE-7C20-47C5-AD5A-257B66940C56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+  </dgm:cxnLst>
+  <dgm:bg>
+    <a:noFill/>
+  </dgm:bg>
+  <dgm:whole>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </dgm:whole>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{B17579CE-7C20-47C5-AD5A-257B66940C56}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8501" y="0"/>
+          <a:ext cx="8697348" cy="566738"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="136017" tIns="45339" rIns="45339" bIns="45339" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1511300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="3400" kern="1200"/>
+            <a:t>PROCESAMIENTO DE IMÁGENES</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="291870" y="0"/>
+        <a:ext cx="8130610" cy="566738"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="process" pri="9000"/>
+  </dgm:catLst>
+  <dgm:sampData useDef="1">
+    <dgm:dataModel>
+      <dgm:ptLst/>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:choose name="Name4">
+      <dgm:if name="Name5" axis="des" func="maxDepth" op="gte" val="2">
+        <dgm:constrLst>
+          <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+          <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+          <dgm:constr type="w" for="des" forName="parTx"/>
+          <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+          <dgm:constr type="w" for="des" forName="desTx"/>
+          <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+          <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+          <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+          <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.5"/>
+          <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.5"/>
+          <dgm:constr type="w" for="ch" forName="space" op="equ" val="-6"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+          <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:forEach name="Name6" axis="ch" ptType="node">
+          <dgm:layoutNode name="composite">
+            <dgm:alg type="composite"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:choose name="Name7">
+              <dgm:if name="Name8" func="var" arg="dir" op="equ" val="norm">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="parTx"/>
+                  <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="parTx"/>
+                  <dgm:constr type="l" for="ch" forName="desTx"/>
+                  <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx" fact="0.8"/>
+                  <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx" fact="1.125"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:else name="Name9">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="parTx"/>
+                  <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="parTx"/>
+                  <dgm:constr type="l" for="ch" forName="desTx" refType="w" fact="0.2"/>
+                  <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx" fact="0.8"/>
+                  <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx" fact="1.125"/>
+                </dgm:constrLst>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:ruleLst>
+              <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+            <dgm:layoutNode name="parTx">
+              <dgm:varLst>
+                <dgm:chMax val="0"/>
+                <dgm:chPref val="0"/>
+                <dgm:bulletEnabled val="1"/>
+              </dgm:varLst>
+              <dgm:alg type="tx"/>
+              <dgm:choose name="Name10">
+                <dgm:if name="Name11" func="var" arg="dir" op="equ" val="norm">
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="chevron" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                </dgm:if>
+                <dgm:else name="Name12">
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" rot="180" type="chevron" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                </dgm:else>
+              </dgm:choose>
+              <dgm:presOf axis="self" ptType="node"/>
+              <dgm:choose name="Name13">
+                <dgm:if name="Name14" func="var" arg="dir" op="equ" val="norm">
+                  <dgm:constrLst>
+                    <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+                    <dgm:constr type="h"/>
+                    <dgm:constr type="tMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="bMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="lMarg" refType="primFontSz" fact="0.315"/>
+                    <dgm:constr type="rMarg" refType="primFontSz" fact="0.105"/>
+                  </dgm:constrLst>
+                </dgm:if>
+                <dgm:else name="Name15">
+                  <dgm:constrLst>
+                    <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+                    <dgm:constr type="h"/>
+                    <dgm:constr type="tMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="bMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="lMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="rMarg" refType="primFontSz" fact="0.315"/>
+                  </dgm:constrLst>
+                </dgm:else>
+              </dgm:choose>
+              <dgm:ruleLst>
+                <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+            <dgm:layoutNode name="desTx" styleLbl="revTx">
+              <dgm:varLst>
+                <dgm:bulletEnabled val="1"/>
+              </dgm:varLst>
+              <dgm:alg type="tx">
+                <dgm:param type="stBulletLvl" val="1"/>
+              </dgm:alg>
+              <dgm:choose name="Name16">
+                <dgm:if name="Name17" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                </dgm:if>
+                <dgm:else name="Name18">
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                </dgm:else>
+              </dgm:choose>
+              <dgm:presOf axis="des" ptType="node"/>
+              <dgm:constrLst>
+                <dgm:constr type="secFontSz" val="65"/>
+                <dgm:constr type="primFontSz" refType="secFontSz"/>
+                <dgm:constr type="h"/>
+                <dgm:constr type="tMarg"/>
+                <dgm:constr type="bMarg"/>
+                <dgm:constr type="rMarg"/>
+                <dgm:constr type="lMarg"/>
+              </dgm:constrLst>
+              <dgm:ruleLst>
+                <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+          </dgm:layoutNode>
+          <dgm:forEach name="Name19" axis="followSib" ptType="sibTrans" cnt="1">
+            <dgm:layoutNode name="space">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+          </dgm:forEach>
+        </dgm:forEach>
+      </dgm:if>
+      <dgm:else name="Name20">
+        <dgm:constrLst>
+          <dgm:constr type="w" for="ch" forName="parTxOnly" refType="w"/>
+          <dgm:constr type="h" for="des" forName="parTxOnly" op="equ"/>
+          <dgm:constr type="primFontSz" for="des" forName="parTxOnly" op="equ" val="65"/>
+          <dgm:constr type="w" for="ch" forName="parTxOnlySpace" refType="w" refFor="ch" refForName="parTxOnly" fact="-0.1"/>
+        </dgm:constrLst>
+        <dgm:ruleLst/>
+        <dgm:forEach name="Name21" axis="ch" ptType="node">
+          <dgm:layoutNode name="parTxOnly">
+            <dgm:varLst>
+              <dgm:chMax val="0"/>
+              <dgm:chPref val="0"/>
+              <dgm:bulletEnabled val="1"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:choose name="Name22">
+              <dgm:if name="Name23" func="var" arg="dir" op="equ" val="norm">
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="chevron" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+              </dgm:if>
+              <dgm:else name="Name24">
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" rot="180" type="chevron" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:presOf axis="self" ptType="node"/>
+            <dgm:choose name="Name25">
+              <dgm:if name="Name26" func="var" arg="dir" op="equ" val="norm">
+                <dgm:constrLst>
+                  <dgm:constr type="h" refType="w" op="equ" fact="0.4"/>
+                  <dgm:constr type="tMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="bMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="lMarg" refType="primFontSz" fact="0.315"/>
+                  <dgm:constr type="rMarg" refType="primFontSz" fact="0.105"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:else name="Name27">
+                <dgm:constrLst>
+                  <dgm:constr type="h" refType="w" op="equ" fact="0.4"/>
+                  <dgm:constr type="tMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="bMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="lMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="rMarg" refType="primFontSz" fact="0.315"/>
+                </dgm:constrLst>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:forEach name="Name28" axis="followSib" ptType="sibTrans" cnt="1">
+            <dgm:layoutNode name="parTxOnlySpace">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+          </dgm:forEach>
+        </dgm:forEach>
+      </dgm:else>
+    </dgm:choose>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -911,6 +3876,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagrama 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66153AE8-4133-4DC8-9732-1D87894FD1A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1359,8 +4365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A5A7A7-C42A-44D3-82F2-CEA2777BE179}">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:I8"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,15 +4546,829 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:I2"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316C172E-1F3F-4747-8367-E86A7EA5D930}">
+  <dimension ref="C6:Q19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="0.85546875" customWidth="1"/>
+    <col min="5" max="5" width="0.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="0.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="0.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="0.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="12" customWidth="1"/>
+    <col min="15" max="15" width="0.85546875" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="12" customWidth="1"/>
+    <col min="17" max="18" width="0.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="20"/>
+      <c r="D7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="20"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="10" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="20"/>
+      <c r="D12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="21"/>
+    </row>
+    <row r="13" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="20"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="21"/>
+    </row>
+    <row r="14" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
+    </row>
+    <row r="15" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="20"/>
+      <c r="D17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="21"/>
+    </row>
+    <row r="18" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="20"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="21"/>
+    </row>
+    <row r="19" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F17:F18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29F4148-2F2E-4241-A324-BEFDAE3027ED}">
+  <dimension ref="B1:I43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="3" width="29" style="12" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" customWidth="1"/>
+    <col min="5" max="6" width="24.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="8" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="2:9" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="47"/>
+    </row>
+    <row r="8" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
+    </row>
+    <row r="10" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
+    </row>
+    <row r="11" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="47"/>
+    </row>
+    <row r="12" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+    </row>
+    <row r="14" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="57"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+    </row>
+    <row r="15" spans="2:9" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
+    </row>
+    <row r="18" spans="2:9" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="65"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="65"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="65"/>
+    </row>
+    <row r="20" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="67"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="67"/>
+    </row>
+    <row r="22" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="67"/>
+    </row>
+    <row r="23" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="67"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="67"/>
+    </row>
+    <row r="24" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="67"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="67"/>
+    </row>
+    <row r="25" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="67"/>
+    </row>
+    <row r="26" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="67"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="67"/>
+    </row>
+    <row r="27" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="67"/>
+    </row>
+    <row r="28" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="67"/>
+    </row>
+    <row r="29" spans="2:9" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="70"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
+    </row>
+    <row r="32" spans="2:9" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="75"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="78"/>
+    </row>
+    <row r="34" spans="2:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="81"/>
+    </row>
+    <row r="35" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="84"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="87"/>
+    </row>
+    <row r="36" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="88"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="87"/>
+    </row>
+    <row r="37" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="88"/>
+      <c r="C37" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="87"/>
+    </row>
+    <row r="38" spans="2:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="88"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="87"/>
+    </row>
+    <row r="39" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="86"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="87"/>
+    </row>
+    <row r="40" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" s="87"/>
+    </row>
+    <row r="41" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="88"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="87"/>
+    </row>
+    <row r="42" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="92"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="87"/>
+    </row>
+    <row r="43" spans="2:9" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:F38"/>
+    <mergeCell ref="H35:I37"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="E39:F42"/>
+    <mergeCell ref="H40:I42"/>
+    <mergeCell ref="E26:F28"/>
+    <mergeCell ref="H26:I28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B30:I31"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="E33:I34"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="H21:I23"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="H11:I14"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B16:I17"/>
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="B7:C12"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Proyecto de grado/Metodologia y documentacion/Agosto/Cap1_ProcesamientoDeImagenes/Metodos y tecnicas.xlsx
+++ b/Proyecto de grado/Metodologia y documentacion/Agosto/Cap1_ProcesamientoDeImagenes/Metodos y tecnicas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torre\Documents\Uniajc\Github\Uniajc_Tesis_OTFV\Proyecto de grado\Metodologia y documentacion\Agosto\Cap1_ProcesamientoDeImagenes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torres_2\Documents\Uniajc\GitHub\Uniajc_Tesis_OTFV\Proyecto de grado\Metodologia y documentacion\Agosto\Cap1_ProcesamientoDeImagenes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4EAB83-864B-4B9B-81B1-83CED62B8C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65FDC24-3E0F-47D6-8618-C8E0BFE05355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0AED005A-E7F9-4C01-9E80-1ACF4FCEDF71}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>Adquisición de imágenes.</t>
   </si>
@@ -152,16 +152,10 @@
     <t>Extracción de objetos</t>
   </si>
   <si>
-    <t>Parametrización</t>
-  </si>
-  <si>
     <t>Reconocimiento</t>
   </si>
   <si>
     <t>Identificación de objetos</t>
-  </si>
-  <si>
-    <t>Extracción de características</t>
   </si>
   <si>
     <t>Determinador de objetos</t>
@@ -748,23 +742,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -781,9 +760,173 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -811,173 +954,24 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1843,8 +1837,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8501" y="0"/>
-          <a:ext cx="8697348" cy="566738"/>
+          <a:off x="7227" y="0"/>
+          <a:ext cx="7393697" cy="566738"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -1910,8 +1904,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="291870" y="0"/>
-        <a:ext cx="8130610" cy="566738"/>
+        <a:off x="290596" y="0"/>
+        <a:ext cx="6826959" cy="566738"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -3886,7 +3880,7 @@
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -4229,13 +4223,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="2:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -4245,68 +4239,68 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="2:6" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:6" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="29"/>
+      <c r="E6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="29"/>
+      <c r="E8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:6" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="29"/>
+      <c r="E10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="29"/>
+      <c r="E12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
@@ -4315,36 +4309,31 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="E14" s="9" t="s">
+      <c r="C14" s="29"/>
+      <c r="E14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="2:6" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="29"/>
+      <c r="E16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B16:C16"/>
@@ -4355,6 +4344,11 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4380,16 +4374,16 @@
   <sheetData>
     <row r="1" spans="2:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="2:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -4401,34 +4395,34 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="H4" s="11" t="s">
+      <c r="F4" s="27"/>
+      <c r="H4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="2:9" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="29"/>
+      <c r="E6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="H6" s="9" t="s">
+      <c r="F6" s="29"/>
+      <c r="H6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="5"/>
@@ -4436,18 +4430,18 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="29"/>
+      <c r="E8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="H8" s="9" t="s">
+      <c r="F8" s="29"/>
+      <c r="H8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5"/>
@@ -4455,18 +4449,18 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="29"/>
+      <c r="E10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="H10" s="9" t="s">
+      <c r="F10" s="29"/>
+      <c r="H10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5"/>
@@ -4474,18 +4468,18 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="29"/>
+      <c r="E12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="H12" s="9" t="s">
+      <c r="F12" s="29"/>
+      <c r="H12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
@@ -4496,18 +4490,18 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="2:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="E14" s="9" t="s">
+      <c r="C14" s="29"/>
+      <c r="E14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="H14" s="9" t="s">
+      <c r="F14" s="29"/>
+      <c r="H14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5"/>
@@ -4515,21 +4509,27 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="29"/>
+      <c r="E16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="H16" s="9" t="s">
+      <c r="F16" s="29"/>
+      <c r="H16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="H4:I4"/>
@@ -4546,12 +4546,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4561,291 +4555,258 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316C172E-1F3F-4747-8367-E86A7EA5D930}">
-  <dimension ref="C6:Q19"/>
+  <dimension ref="C6:O19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H13"/>
+      <selection activeCell="C2" sqref="C2:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="0.85546875" customWidth="1"/>
     <col min="5" max="5" width="0.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="0.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="9" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="9" customWidth="1"/>
     <col min="11" max="11" width="0.85546875" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="9" customWidth="1"/>
     <col min="13" max="13" width="0.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="0.85546875" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="12" customWidth="1"/>
-    <col min="17" max="18" width="0.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="9" customWidth="1"/>
+    <col min="15" max="16" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="D7" s="26" t="s">
+    <row r="6" spans="3:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15"/>
+      <c r="D7" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="13" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="13" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="13" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="13" t="s">
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="15"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="3:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="3:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="3:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="15"/>
+      <c r="D12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="20"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="25"/>
-    </row>
-    <row r="10" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
-    </row>
-    <row r="12" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="20"/>
-      <c r="D12" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="13" t="s">
+      <c r="M12" s="10"/>
+      <c r="N12" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="15"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="3:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="3:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="13" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="15"/>
-      <c r="P12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12" s="21"/>
-    </row>
-    <row r="13" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="20"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="21"/>
-    </row>
-    <row r="14" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="25"/>
-    </row>
-    <row r="15" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="19"/>
-    </row>
-    <row r="17" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="20"/>
-      <c r="D17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="21"/>
-    </row>
-    <row r="18" spans="3:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="20"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="3:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="3:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="3:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N17:N18"/>
+  <mergeCells count="18">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L17:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4864,9 +4825,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.85546875" customWidth="1"/>
-    <col min="2" max="3" width="29" style="12" customWidth="1"/>
+    <col min="2" max="3" width="29" style="9" customWidth="1"/>
     <col min="4" max="4" width="0.85546875" customWidth="1"/>
-    <col min="5" max="6" width="24.42578125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="24.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="0.85546875" customWidth="1"/>
     <col min="8" max="9" width="25.28515625" customWidth="1"/>
     <col min="10" max="10" width="0.85546875" customWidth="1"/>
@@ -4874,488 +4835,457 @@
   <sheetData>
     <row r="1" spans="2:9" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+      <c r="B2" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="2:9" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="92"/>
+    </row>
+    <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+    </row>
+    <row r="7" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="37"/>
-    </row>
-    <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-    </row>
-    <row r="7" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="41" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44" t="s">
+      <c r="I7" s="63"/>
+    </row>
+    <row r="8" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="46" t="s">
+      <c r="F8" s="65"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
+    </row>
+    <row r="9" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="47"/>
-    </row>
-    <row r="8" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="48" t="s">
+      <c r="F9" s="65"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
+    </row>
+    <row r="10" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
-    </row>
-    <row r="9" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="48" t="s">
+      <c r="F10" s="65"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63"/>
+    </row>
+    <row r="11" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="47"/>
-    </row>
-    <row r="10" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="48" t="s">
+      <c r="F11" s="65"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47"/>
-    </row>
-    <row r="11" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="48" t="s">
+      <c r="I11" s="63"/>
+    </row>
+    <row r="12" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="46" t="s">
+      <c r="F12" s="65"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="47"/>
-    </row>
-    <row r="12" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="48" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="50" t="s">
+      <c r="F13" s="71"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63"/>
+    </row>
+    <row r="14" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-    </row>
-    <row r="14" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
     </row>
     <row r="15" spans="2:9" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
+      <c r="B16" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79"/>
     </row>
     <row r="18" spans="2:9" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="64" t="s">
+      <c r="I19" s="61"/>
+    </row>
+    <row r="20" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+    </row>
+    <row r="21" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="64" t="s">
+      <c r="C21" s="45"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="65"/>
-    </row>
-    <row r="20" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
-    </row>
-    <row r="21" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="66" t="s">
+      <c r="F21" s="45"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="66" t="s">
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="66" t="s">
+      <c r="C23" s="45"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="67"/>
-    </row>
-    <row r="22" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="67"/>
-    </row>
-    <row r="23" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="66" t="s">
+      <c r="F24" s="45"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="67"/>
-    </row>
-    <row r="24" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="66" t="s">
+      <c r="I24" s="45"/>
+    </row>
+    <row r="25" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="66" t="s">
+      <c r="C25" s="45"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+    </row>
+    <row r="26" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="67"/>
-    </row>
-    <row r="25" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="66" t="s">
+      <c r="F26" s="45"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="67"/>
-    </row>
-    <row r="26" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="66" t="s">
+      <c r="I26" s="45"/>
+    </row>
+    <row r="27" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="67"/>
-    </row>
-    <row r="27" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="67"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
     </row>
     <row r="28" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="67"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
     </row>
     <row r="29" spans="2:9" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
+      <c r="B30" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="48"/>
     </row>
     <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="71"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" spans="2:9" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
+    </row>
+    <row r="34" spans="2:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
+    </row>
+    <row r="35" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="76" t="s">
+      <c r="C35" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="78"/>
-    </row>
-    <row r="34" spans="2:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="81"/>
-    </row>
-    <row r="35" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="F35" s="37"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="82" t="s">
+      <c r="I35" s="42"/>
+    </row>
+    <row r="36" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="34"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="42"/>
+    </row>
+    <row r="37" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="34"/>
+      <c r="C37" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="84"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="86" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="42"/>
+    </row>
+    <row r="38" spans="2:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="34"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="I35" s="87"/>
-    </row>
-    <row r="36" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="88"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="87"/>
-    </row>
-    <row r="37" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="88"/>
-      <c r="C37" s="89" t="s">
+      <c r="I38" s="42"/>
+    </row>
+    <row r="39" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="87"/>
-    </row>
-    <row r="38" spans="2:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="88"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="86" t="s">
+      <c r="C39" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I38" s="87"/>
-    </row>
-    <row r="39" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="82" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="F39" s="41"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="42"/>
+    </row>
+    <row r="40" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="34"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="86"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="87"/>
-    </row>
-    <row r="40" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="88"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="I40" s="87"/>
+      <c r="I40" s="42"/>
     </row>
     <row r="41" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="88"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="87"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
     </row>
     <row r="42" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="92"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="87"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="42"/>
     </row>
     <row r="43" spans="2:9" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:F38"/>
-    <mergeCell ref="H35:I37"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="H38:I39"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="E39:F42"/>
-    <mergeCell ref="H40:I42"/>
-    <mergeCell ref="E26:F28"/>
-    <mergeCell ref="H26:I28"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B30:I31"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="E33:I34"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="H21:I23"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="H11:I14"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="B16:I17"/>
     <mergeCell ref="B2:I3"/>
     <mergeCell ref="B5:F6"/>
@@ -5367,6 +5297,37 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I14"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="H21:I23"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="E26:F28"/>
+    <mergeCell ref="H26:I28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B30:I31"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="E33:I34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:F38"/>
+    <mergeCell ref="H35:I37"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="E39:F42"/>
+    <mergeCell ref="H40:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
